--- a/bug/bug053_3_1.xlsx
+++ b/bug/bug053_3_1.xlsx
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提交人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>添加房间后，在结算主界面点击房间名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -510,18 +510,18 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5">
       <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5">
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.5">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="8" spans="1:3" ht="16.5">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -577,24 +577,24 @@
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="16.5">
